--- a/solutions/github/devops/actions-enterprise-cicd/presales/infrastructure-costs.xlsx
+++ b/solutions/github/devops/actions-enterprise-cicd/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1572,7 +1572,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1621,7 +1621,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1670,7 +1670,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1719,7 +1719,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1817,7 +1817,7 @@
     <row r="12" ht="26" customHeight="1">
       <c r="A12" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B12" s="48" t="inlineStr">
@@ -1866,40 +1866,40 @@
     <row r="13" ht="26" customHeight="1">
       <c r="A13" s="43" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B13" s="44" t="inlineStr">
         <is>
-          <t>CI/CD Platform Assessment</t>
+          <t>Artifact Repository</t>
         </is>
       </c>
       <c r="C13" s="44" t="inlineStr">
         <is>
-          <t>Current state Jenkins/GitLab CI evaluation</t>
+          <t>JFrog Artifactory Cloud (100 users)</t>
         </is>
       </c>
       <c r="D13" s="45" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E13" s="44" t="inlineStr">
         <is>
-          <t>Hours</t>
+          <t>Users/Year</t>
         </is>
       </c>
       <c r="F13" s="46" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="G13" s="46">
         <f>D13*F13</f>
         <v/>
       </c>
       <c r="H13" s="46">
-        <f>0</f>
+        <f>G13</f>
         <v/>
       </c>
       <c r="I13" s="46">
-        <f>0</f>
+        <f>G13</f>
         <v/>
       </c>
       <c r="J13" s="46">
@@ -1908,47 +1908,47 @@
       </c>
       <c r="K13" s="44" t="inlineStr">
         <is>
-          <t>Migration complexity analysis</t>
+          <t>Universal artifact management</t>
         </is>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1">
       <c r="A14" s="47" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B14" s="48" t="inlineStr">
         <is>
-          <t>GitHub Actions Migration</t>
+          <t>Container Registry</t>
         </is>
       </c>
       <c r="C14" s="48" t="inlineStr">
         <is>
-          <t>Migrate Jenkins/GitLab pipelines to GitHub Actions</t>
+          <t>Harbor enterprise container registry (1 TB)</t>
         </is>
       </c>
       <c r="D14" s="49" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="E14" s="48" t="inlineStr">
         <is>
-          <t>Hours</t>
+          <t>Service/Year</t>
         </is>
       </c>
       <c r="F14" s="50" t="n">
-        <v>225</v>
+        <v>8000</v>
       </c>
       <c r="G14" s="50">
         <f>D14*F14</f>
         <v/>
       </c>
       <c r="H14" s="50">
-        <f>0</f>
+        <f>G14</f>
         <v/>
       </c>
       <c r="I14" s="50">
-        <f>0</f>
+        <f>G14</f>
         <v/>
       </c>
       <c r="J14" s="50">
@@ -1957,47 +1957,47 @@
       </c>
       <c r="K14" s="48" t="inlineStr">
         <is>
-          <t>Pipeline conversion and testing</t>
+          <t>Private Docker registry</t>
         </is>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1">
       <c r="A15" s="43" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B15" s="44" t="inlineStr">
         <is>
-          <t>Reusable Workflow Development</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C15" s="44" t="inlineStr">
         <is>
-          <t>Build workflow templates for .NET Node.js Python Docker</t>
+          <t>Datadog Infrastructure + APM (20 hosts)</t>
         </is>
       </c>
       <c r="D15" s="45" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E15" s="44" t="inlineStr">
         <is>
-          <t>Hours</t>
+          <t>Hosts/Month</t>
         </is>
       </c>
       <c r="F15" s="46" t="n">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="G15" s="46">
-        <f>D15*F15</f>
+        <f>D15*F15*12</f>
         <v/>
       </c>
       <c r="H15" s="46">
-        <f>0</f>
+        <f>G15</f>
         <v/>
       </c>
       <c r="I15" s="46">
-        <f>0</f>
+        <f>G15</f>
         <v/>
       </c>
       <c r="J15" s="46">
@@ -2006,47 +2006,47 @@
       </c>
       <c r="K15" s="44" t="inlineStr">
         <is>
-          <t>Standardized pipeline library</t>
+          <t>Runner and deployment monitoring</t>
         </is>
       </c>
     </row>
     <row r="16" ht="26" customHeight="1">
       <c r="A16" s="47" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B16" s="48" t="inlineStr">
         <is>
-          <t>Self-Hosted Runner Setup</t>
+          <t>Notification</t>
         </is>
       </c>
       <c r="C16" s="48" t="inlineStr">
         <is>
-          <t>Deploy and configure runner infrastructure in AWS VPC</t>
+          <t>PagerDuty Professional (5 users)</t>
         </is>
       </c>
       <c r="D16" s="49" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E16" s="48" t="inlineStr">
         <is>
-          <t>Hours</t>
+          <t>Users/Month</t>
         </is>
       </c>
       <c r="F16" s="50" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="G16" s="50">
-        <f>D16*F16</f>
+        <f>D16*F16*12</f>
         <v/>
       </c>
       <c r="H16" s="50">
-        <f>0</f>
+        <f>G16</f>
         <v/>
       </c>
       <c r="I16" s="50">
-        <f>0</f>
+        <f>G16</f>
         <v/>
       </c>
       <c r="J16" s="50">
@@ -2055,47 +2055,47 @@
       </c>
       <c r="K16" s="48" t="inlineStr">
         <is>
-          <t>EC2 ASG networking security</t>
+          <t>Pipeline failure alerts</t>
         </is>
       </c>
     </row>
     <row r="17" ht="26" customHeight="1">
       <c r="A17" s="43" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B17" s="44" t="inlineStr">
         <is>
-          <t>OIDC Integration</t>
+          <t>GitHub Premium Support</t>
         </is>
       </c>
       <c r="C17" s="44" t="inlineStr">
         <is>
-          <t>Configure OIDC for AWS Azure GCP keyless auth</t>
+          <t>24x7 premium support with 1-hour response SLA</t>
         </is>
       </c>
       <c r="D17" s="45" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E17" s="44" t="inlineStr">
         <is>
-          <t>Hours</t>
+          <t>Service/Year</t>
         </is>
       </c>
       <c r="F17" s="46" t="n">
-        <v>225</v>
+        <v>25000</v>
       </c>
       <c r="G17" s="46">
         <f>D17*F17</f>
         <v/>
       </c>
       <c r="H17" s="46">
-        <f>0</f>
+        <f>G17</f>
         <v/>
       </c>
       <c r="I17" s="46">
-        <f>0</f>
+        <f>G17</f>
         <v/>
       </c>
       <c r="J17" s="46">
@@ -2104,47 +2104,47 @@
       </c>
       <c r="K17" s="44" t="inlineStr">
         <is>
-          <t>Federated identity setup</t>
+          <t>Enterprise-grade support</t>
         </is>
       </c>
     </row>
     <row r="18" ht="26" customHeight="1">
       <c r="A18" s="47" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B18" s="48" t="inlineStr">
         <is>
-          <t>Environment Configuration</t>
+          <t>Runner Managed Services</t>
         </is>
       </c>
       <c r="C18" s="48" t="inlineStr">
         <is>
-          <t>Set up dev test staging production environments</t>
+          <t>Ongoing runner infrastructure management and optimization</t>
         </is>
       </c>
       <c r="D18" s="49" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E18" s="48" t="inlineStr">
         <is>
-          <t>Hours</t>
+          <t>Service/Year</t>
         </is>
       </c>
       <c r="F18" s="50" t="n">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="G18" s="50">
         <f>D18*F18</f>
         <v/>
       </c>
       <c r="H18" s="50">
-        <f>0</f>
+        <f>G18</f>
         <v/>
       </c>
       <c r="I18" s="50">
-        <f>0</f>
+        <f>G18</f>
         <v/>
       </c>
       <c r="J18" s="50">
@@ -2153,531 +2153,41 @@
       </c>
       <c r="K18" s="48" t="inlineStr">
         <is>
-          <t>Secrets protection rules approvals</t>
+          <t>Platform maintenance and updates</t>
         </is>
       </c>
     </row>
     <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B19" s="44" t="inlineStr">
-        <is>
-          <t>Security Integration</t>
-        </is>
-      </c>
-      <c r="C19" s="44" t="inlineStr">
-        <is>
-          <t>Integrate CodeQL Dependabot container scanning</t>
-        </is>
-      </c>
-      <c r="D19" s="45" t="n">
-        <v>24</v>
-      </c>
-      <c r="E19" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F19" s="46" t="n">
-        <v>225</v>
-      </c>
-      <c r="G19" s="46">
-        <f>D19*F19</f>
-        <v/>
-      </c>
-      <c r="H19" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I19" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J19" s="46">
-        <f>G19+H19+I19</f>
-        <v/>
-      </c>
-      <c r="K19" s="44" t="inlineStr">
-        <is>
-          <t>Security automation in pipelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B20" s="48" t="inlineStr">
-        <is>
-          <t>Monitoring Setup</t>
-        </is>
-      </c>
-      <c r="C20" s="48" t="inlineStr">
-        <is>
-          <t>Configure Datadog New Relic for pipeline monitoring</t>
-        </is>
-      </c>
-      <c r="D20" s="49" t="n">
-        <v>20</v>
-      </c>
-      <c r="E20" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F20" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G20" s="50">
-        <f>D20*F20</f>
-        <v/>
-      </c>
-      <c r="H20" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I20" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J20" s="50">
-        <f>G20+H20+I20</f>
-        <v/>
-      </c>
-      <c r="K20" s="48" t="inlineStr">
-        <is>
-          <t>CI/CD observability</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B21" s="44" t="inlineStr">
-        <is>
-          <t>DevOps Engineer Training</t>
-        </is>
-      </c>
-      <c r="C21" s="44" t="inlineStr">
-        <is>
-          <t>Train platform engineers on Actions workflow authoring</t>
-        </is>
-      </c>
-      <c r="D21" s="45" t="n">
-        <v>32</v>
-      </c>
-      <c r="E21" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F21" s="46" t="n">
-        <v>175</v>
-      </c>
-      <c r="G21" s="46">
-        <f>D21*F21</f>
-        <v/>
-      </c>
-      <c r="H21" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I21" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J21" s="46">
-        <f>G21+H21+I21</f>
-        <v/>
-      </c>
-      <c r="K21" s="44" t="inlineStr">
-        <is>
-          <t>4 days hands-on training</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="26" customHeight="1">
-      <c r="A22" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B22" s="48" t="inlineStr">
-        <is>
-          <t>Developer Training</t>
-        </is>
-      </c>
-      <c r="C22" s="48" t="inlineStr">
-        <is>
-          <t>Train developers on using Actions and workflows</t>
-        </is>
-      </c>
-      <c r="D22" s="49" t="n">
-        <v>24</v>
-      </c>
-      <c r="E22" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F22" s="50" t="n">
-        <v>175</v>
-      </c>
-      <c r="G22" s="50">
-        <f>D22*F22</f>
-        <v/>
-      </c>
-      <c r="H22" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I22" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J22" s="50">
-        <f>G22+H22+I22</f>
-        <v/>
-      </c>
-      <c r="K22" s="48" t="inlineStr">
-        <is>
-          <t>3 days enablement workshops</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="26" customHeight="1">
-      <c r="A23" s="43" t="inlineStr">
-        <is>
-          <t>Third-Party Tools</t>
-        </is>
-      </c>
-      <c r="B23" s="44" t="inlineStr">
-        <is>
-          <t>Artifact Repository</t>
-        </is>
-      </c>
-      <c r="C23" s="44" t="inlineStr">
-        <is>
-          <t>JFrog Artifactory Cloud (100 users)</t>
-        </is>
-      </c>
-      <c r="D23" s="45" t="n">
-        <v>100</v>
-      </c>
-      <c r="E23" s="44" t="inlineStr">
-        <is>
-          <t>Users/Year</t>
-        </is>
-      </c>
-      <c r="F23" s="46" t="n">
-        <v>125</v>
-      </c>
-      <c r="G23" s="46">
-        <f>D23*F23</f>
-        <v/>
-      </c>
-      <c r="H23" s="46">
-        <f>G23</f>
-        <v/>
-      </c>
-      <c r="I23" s="46">
-        <f>G23</f>
-        <v/>
-      </c>
-      <c r="J23" s="46">
-        <f>G23+H23+I23</f>
-        <v/>
-      </c>
-      <c r="K23" s="44" t="inlineStr">
-        <is>
-          <t>Universal artifact management</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="26" customHeight="1">
-      <c r="A24" s="47" t="inlineStr">
-        <is>
-          <t>Third-Party Tools</t>
-        </is>
-      </c>
-      <c r="B24" s="48" t="inlineStr">
-        <is>
-          <t>Container Registry</t>
-        </is>
-      </c>
-      <c r="C24" s="48" t="inlineStr">
-        <is>
-          <t>Harbor enterprise container registry (1 TB)</t>
-        </is>
-      </c>
-      <c r="D24" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="48" t="inlineStr">
-        <is>
-          <t>Service/Year</t>
-        </is>
-      </c>
-      <c r="F24" s="50" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G24" s="50">
-        <f>D24*F24</f>
-        <v/>
-      </c>
-      <c r="H24" s="50">
-        <f>G24</f>
-        <v/>
-      </c>
-      <c r="I24" s="50">
-        <f>G24</f>
-        <v/>
-      </c>
-      <c r="J24" s="50">
-        <f>G24+H24+I24</f>
-        <v/>
-      </c>
-      <c r="K24" s="48" t="inlineStr">
-        <is>
-          <t>Private Docker registry</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="26" customHeight="1">
-      <c r="A25" s="43" t="inlineStr">
-        <is>
-          <t>Third-Party Tools</t>
-        </is>
-      </c>
-      <c r="B25" s="44" t="inlineStr">
-        <is>
-          <t>Monitoring</t>
-        </is>
-      </c>
-      <c r="C25" s="44" t="inlineStr">
-        <is>
-          <t>Datadog Infrastructure + APM (20 hosts)</t>
-        </is>
-      </c>
-      <c r="D25" s="45" t="n">
-        <v>20</v>
-      </c>
-      <c r="E25" s="44" t="inlineStr">
-        <is>
-          <t>Hosts/Month</t>
-        </is>
-      </c>
-      <c r="F25" s="46" t="n">
-        <v>31</v>
-      </c>
-      <c r="G25" s="46">
-        <f>D25*F25*12</f>
-        <v/>
-      </c>
-      <c r="H25" s="46">
-        <f>G25</f>
-        <v/>
-      </c>
-      <c r="I25" s="46">
-        <f>G25</f>
-        <v/>
-      </c>
-      <c r="J25" s="46">
-        <f>G25+H25+I25</f>
-        <v/>
-      </c>
-      <c r="K25" s="44" t="inlineStr">
-        <is>
-          <t>Runner and deployment monitoring</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="26" customHeight="1">
-      <c r="A26" s="47" t="inlineStr">
-        <is>
-          <t>Third-Party Tools</t>
-        </is>
-      </c>
-      <c r="B26" s="48" t="inlineStr">
-        <is>
-          <t>Notification</t>
-        </is>
-      </c>
-      <c r="C26" s="48" t="inlineStr">
-        <is>
-          <t>PagerDuty Professional (5 users)</t>
-        </is>
-      </c>
-      <c r="D26" s="49" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" s="48" t="inlineStr">
-        <is>
-          <t>Users/Month</t>
-        </is>
-      </c>
-      <c r="F26" s="50" t="n">
-        <v>41</v>
-      </c>
-      <c r="G26" s="50">
-        <f>D26*F26*12</f>
-        <v/>
-      </c>
-      <c r="H26" s="50">
-        <f>G26</f>
-        <v/>
-      </c>
-      <c r="I26" s="50">
-        <f>G26</f>
-        <v/>
-      </c>
-      <c r="J26" s="50">
-        <f>G26+H26+I26</f>
-        <v/>
-      </c>
-      <c r="K26" s="48" t="inlineStr">
-        <is>
-          <t>Pipeline failure alerts</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="26" customHeight="1">
-      <c r="A27" s="43" t="inlineStr">
-        <is>
-          <t>Support &amp; Maintenance</t>
-        </is>
-      </c>
-      <c r="B27" s="44" t="inlineStr">
-        <is>
-          <t>GitHub Premium Support</t>
-        </is>
-      </c>
-      <c r="C27" s="44" t="inlineStr">
-        <is>
-          <t>24x7 premium support with 1-hour response SLA</t>
-        </is>
-      </c>
-      <c r="D27" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="44" t="inlineStr">
-        <is>
-          <t>Service/Year</t>
-        </is>
-      </c>
-      <c r="F27" s="46" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G27" s="46">
-        <f>D27*F27</f>
-        <v/>
-      </c>
-      <c r="H27" s="46">
-        <f>G27</f>
-        <v/>
-      </c>
-      <c r="I27" s="46">
-        <f>G27</f>
-        <v/>
-      </c>
-      <c r="J27" s="46">
-        <f>G27+H27+I27</f>
-        <v/>
-      </c>
-      <c r="K27" s="44" t="inlineStr">
-        <is>
-          <t>Enterprise-grade support</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="26" customHeight="1">
-      <c r="A28" s="47" t="inlineStr">
-        <is>
-          <t>Support &amp; Maintenance</t>
-        </is>
-      </c>
-      <c r="B28" s="48" t="inlineStr">
-        <is>
-          <t>Runner Managed Services</t>
-        </is>
-      </c>
-      <c r="C28" s="48" t="inlineStr">
-        <is>
-          <t>Ongoing runner infrastructure management and optimization</t>
-        </is>
-      </c>
-      <c r="D28" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="48" t="inlineStr">
-        <is>
-          <t>Service/Year</t>
-        </is>
-      </c>
-      <c r="F28" s="50" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G28" s="50">
-        <f>D28*F28</f>
-        <v/>
-      </c>
-      <c r="H28" s="50">
-        <f>G28</f>
-        <v/>
-      </c>
-      <c r="I28" s="50">
-        <f>G28</f>
-        <v/>
-      </c>
-      <c r="J28" s="50">
-        <f>G28+H28+I28</f>
-        <v/>
-      </c>
-      <c r="K28" s="48" t="inlineStr">
-        <is>
-          <t>Platform maintenance and updates</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="26" customHeight="1">
-      <c r="A29" s="51" t="inlineStr">
+      <c r="A19" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B29" s="52" t="n"/>
-      <c r="C29" s="52" t="n"/>
-      <c r="D29" s="52" t="n"/>
-      <c r="E29" s="52" t="n"/>
-      <c r="F29" s="52" t="n"/>
-      <c r="G29" s="53">
-        <f>SUM(G3:G28)</f>
-        <v/>
-      </c>
-      <c r="H29" s="53">
-        <f>SUM(H3:H28)</f>
-        <v/>
-      </c>
-      <c r="I29" s="53">
-        <f>SUM(I3:I28)</f>
-        <v/>
-      </c>
-      <c r="J29" s="53">
-        <f>SUM(J3:J28)</f>
-        <v/>
-      </c>
-      <c r="K29" s="52" t="n"/>
+      <c r="B19" s="52" t="n"/>
+      <c r="C19" s="52" t="n"/>
+      <c r="D19" s="52" t="n"/>
+      <c r="E19" s="52" t="n"/>
+      <c r="F19" s="52" t="n"/>
+      <c r="G19" s="53">
+        <f>SUM(G3:G18)</f>
+        <v/>
+      </c>
+      <c r="H19" s="53">
+        <f>SUM(H3:H18)</f>
+        <v/>
+      </c>
+      <c r="I19" s="53">
+        <f>SUM(I3:I18)</f>
+        <v/>
+      </c>
+      <c r="J19" s="53">
+        <f>SUM(J3:J18)</f>
+        <v/>
+      </c>
+      <c r="K19" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K29"/>
+  <autoFilter ref="A2:K19"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2758,7 +2268,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -2798,7 +2308,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Third-Party Tools</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -2830,7 +2340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2926,7 +2436,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -2957,7 +2467,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B5" s="46">
@@ -2988,7 +2498,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Third-Party Tools</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B6" s="50">
@@ -3017,69 +2527,38 @@
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="43" t="inlineStr">
-        <is>
-          <t>Support &amp; Maintenance</t>
-        </is>
-      </c>
-      <c r="B7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C7" s="46">
-        <f>SUMIF(Credits!$A:$A,A7,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D7" s="46">
-        <f>B7+C7</f>
-        <v/>
-      </c>
-      <c r="E7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G7" s="46">
-        <f>D7+E7+F7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="51" t="inlineStr">
+      <c r="A7" s="51" t="inlineStr">
         <is>
           <t>**TOTAL INVESTMENT**</t>
         </is>
       </c>
-      <c r="B8" s="53">
-        <f>SUM(B3:B7)</f>
-        <v/>
-      </c>
-      <c r="C8" s="53">
-        <f>SUM(C3:C7)</f>
-        <v/>
-      </c>
-      <c r="D8" s="53">
-        <f>SUM(D3:D7)</f>
-        <v/>
-      </c>
-      <c r="E8" s="53">
-        <f>SUM(E3:E7)</f>
-        <v/>
-      </c>
-      <c r="F8" s="53">
-        <f>SUM(F3:F7)</f>
-        <v/>
-      </c>
-      <c r="G8" s="53">
-        <f>SUM(G3:G7)</f>
+      <c r="B7" s="53">
+        <f>SUM(B3:B6)</f>
+        <v/>
+      </c>
+      <c r="C7" s="53">
+        <f>SUM(C3:C6)</f>
+        <v/>
+      </c>
+      <c r="D7" s="53">
+        <f>SUM(D3:D6)</f>
+        <v/>
+      </c>
+      <c r="E7" s="53">
+        <f>SUM(E3:E6)</f>
+        <v/>
+      </c>
+      <c r="F7" s="53">
+        <f>SUM(F3:F6)</f>
+        <v/>
+      </c>
+      <c r="G7" s="53">
+        <f>SUM(G3:G6)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G8"/>
+  <autoFilter ref="A2:G7"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/solutions/github/devops/actions-enterprise-cicd/presales/infrastructure-costs.xlsx
+++ b/solutions/github/devops/actions-enterprise-cicd/presales/infrastructure-costs.xlsx
@@ -2340,7 +2340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2405,7 +2405,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Software Licenses</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2436,7 +2436,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Services</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -2467,7 +2467,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Software Licenses</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B5" s="46">
@@ -2498,7 +2498,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Support &amp; Maintenance</t>
+          <t>Professional Services</t>
         </is>
       </c>
       <c r="B6" s="50">
@@ -2529,7 +2529,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="51" t="inlineStr">
         <is>
-          <t>**TOTAL INVESTMENT**</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="B7" s="53">
@@ -2557,6 +2557,7 @@
         <v/>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <autoFilter ref="A2:G7"/>
   <mergeCells count="1">
